--- a/overnight_symbols_config.xlsx
+++ b/overnight_symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9240"/>
+    <workbookView windowWidth="22350" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -158,7 +158,7 @@
     <t>沪铅</t>
   </si>
   <si>
-    <t>PB2512</t>
+    <t>PB2601</t>
   </si>
   <si>
     <t>沥青</t>
@@ -236,7 +236,7 @@
     <t>低硫燃油</t>
   </si>
   <si>
-    <t>LU2601</t>
+    <t>LU2602</t>
   </si>
   <si>
     <t>尿素</t>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>EC2602</t>
+  </si>
+  <si>
+    <t>白银</t>
+  </si>
+  <si>
+    <t>AG2602</t>
   </si>
 </sst>
 </file>
@@ -1428,10 +1434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1745,6 +1751,14 @@
         <v>75</v>
       </c>
     </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/overnight_symbols_config.xlsx
+++ b/overnight_symbols_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22350" windowHeight="10680"/>
+    <workbookView windowWidth="27330" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="symbols" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -56,7 +56,7 @@
     <t>焦煤</t>
   </si>
   <si>
-    <t>JM2601</t>
+    <t>JM2605</t>
   </si>
   <si>
     <t>棉花</t>
@@ -104,7 +104,7 @@
     <t>天然橡胶</t>
   </si>
   <si>
-    <t>RU2601</t>
+    <t>RU2605</t>
   </si>
   <si>
     <t>螺纹钢</t>
@@ -122,7 +122,7 @@
     <t>棉纱</t>
   </si>
   <si>
-    <t>CY2601</t>
+    <t>CY2603</t>
   </si>
   <si>
     <t>纸浆</t>
@@ -164,7 +164,7 @@
     <t>沥青</t>
   </si>
   <si>
-    <t>BU2601</t>
+    <t>BU2602</t>
   </si>
   <si>
     <t>燃油</t>
@@ -230,7 +230,7 @@
     <t>铝合金</t>
   </si>
   <si>
-    <t>AD2601</t>
+    <t>AD2602</t>
   </si>
   <si>
     <t>低硫燃油</t>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>AG2602</t>
+  </si>
+  <si>
+    <t>热卷</t>
+  </si>
+  <si>
+    <t>HC2605</t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1759,6 +1765,14 @@
         <v>77</v>
       </c>
     </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
